--- a/test/bill_updated.xlsx
+++ b/test/bill_updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asset\Documents\GitHub\work\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4AD2E3-2916-4950-966A-C0846AB59A5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13B0ACC-2AFB-45BF-8F1E-A18585EB19CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -980,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
